--- a/doc/issue_tracking.xlsx
+++ b/doc/issue_tracking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ID #</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Aaron</t>
   </si>
   <si>
@@ -64,6 +61,30 @@
   </si>
   <si>
     <t>Currently, each occurrence requires manual correction.</t>
+  </si>
+  <si>
+    <t>3-Low</t>
+  </si>
+  <si>
+    <t>Make it possible to submit a batch of jobs. Different .ma files, but same project folder, frame range, priority, etc.</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Use Google Docs for issue tracking</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Remove or repurpose the recent tasks tab in FarmView</t>
+  </si>
+  <si>
+    <t>The recent tasks tab is useful because it shows Project, Frame range, and because it allows the user to see an exploded view of what tasks are in the Ready queue. I feel that this tab should be changed to better serve the needs it is fulfilling. A lot of the info shown in the Recent Tasks tab is redundant with the Job List and could be merged into that tab.</t>
   </si>
 </sst>
 </file>
@@ -421,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>41373</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -492,19 +513,85 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>41373</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41375</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41375</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
